--- a/Excel.xlsx
+++ b/Excel.xlsx
@@ -27,12 +27,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>name</t>
   </si>
   <si>
     <t>score</t>
+  </si>
+  <si>
+    <t>dev</t>
   </si>
 </sst>
 </file>
@@ -1185,13 +1188,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="1" outlineLevelCol="1"/>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
@@ -1201,6 +1204,11 @@
         <v>1</v>
       </c>
     </row>
+    <row r="2" spans="1:1">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/Excel.xlsx
+++ b/Excel.xlsx
@@ -8,6 +8,7 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="10">
   <si>
     <t>name</t>
   </si>
@@ -36,6 +37,27 @@
   </si>
   <si>
     <t>dev</t>
+  </si>
+  <si>
+    <t>pavi</t>
+  </si>
+  <si>
+    <t>sanju</t>
+  </si>
+  <si>
+    <t>preeti</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Score</t>
+  </si>
+  <si>
+    <t>John</t>
+  </si>
+  <si>
+    <t>kaviya</t>
   </si>
 </sst>
 </file>
@@ -1188,13 +1210,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="1" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="4" outlineLevelCol="1"/>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
@@ -1204,9 +1226,93 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
+    <row r="2" spans="1:2">
       <c r="A2" t="s">
         <v>2</v>
+      </c>
+      <c r="B2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5">
+        <v>35</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="4" outlineLevelCol="1"/>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5">
+        <v>35</v>
       </c>
     </row>
   </sheetData>

--- a/Excel.xlsx
+++ b/Excel.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19035" windowHeight="7620"/>
+    <workbookView windowWidth="19635" windowHeight="7620" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,13 +27,50 @@
 </workbook>
 </file>
 
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="10">
-  <si>
-    <t>name</t>
-  </si>
-  <si>
-    <t>score</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="34">
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Score</t>
+  </si>
+  <si>
+    <t>IF</t>
+  </si>
+  <si>
+    <t>CountIf</t>
+  </si>
+  <si>
+    <t>Sumif</t>
+  </si>
+  <si>
+    <t>Averageif</t>
+  </si>
+  <si>
+    <t>Concat</t>
   </si>
   <si>
     <t>dev</t>
@@ -48,16 +85,73 @@
     <t>preeti</t>
   </si>
   <si>
-    <t>Name</t>
-  </si>
-  <si>
-    <t>Score</t>
-  </si>
-  <si>
-    <t>John</t>
-  </si>
-  <si>
-    <t>kaviya</t>
+    <t>Employee</t>
+  </si>
+  <si>
+    <t>Region</t>
+  </si>
+  <si>
+    <t>Sales</t>
+  </si>
+  <si>
+    <t>Quarter</t>
+  </si>
+  <si>
+    <t>Index</t>
+  </si>
+  <si>
+    <t>Match</t>
+  </si>
+  <si>
+    <t>Unique</t>
+  </si>
+  <si>
+    <t>IFS</t>
+  </si>
+  <si>
+    <t>countIFS</t>
+  </si>
+  <si>
+    <t>SUMIF</t>
+  </si>
+  <si>
+    <t>AverageIFS</t>
+  </si>
+  <si>
+    <t>meenakshi</t>
+  </si>
+  <si>
+    <t>north</t>
+  </si>
+  <si>
+    <t>Q1</t>
+  </si>
+  <si>
+    <t>south</t>
+  </si>
+  <si>
+    <t>niran</t>
+  </si>
+  <si>
+    <t>Q2</t>
+  </si>
+  <si>
+    <t>kiran</t>
+  </si>
+  <si>
+    <t>rohit</t>
+  </si>
+  <si>
+    <t>east</t>
+  </si>
+  <si>
+    <t>Q3</t>
+  </si>
+  <si>
+    <t>haran</t>
+  </si>
+  <si>
+    <t>meenu</t>
   </si>
 </sst>
 </file>
@@ -70,9 +164,40 @@
     <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="24">
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -223,7 +348,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -232,6 +357,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="-0.25"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -417,12 +554,27 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="10">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -543,138 +695,159 @@
     <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -729,7 +902,21 @@
     <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
     <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="17">
+  <dxfs count="19">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="9" tint="-0.5"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -923,25 +1110,25 @@
   </dxfs>
   <tableStyles count="2" defaultTableStyle="TableStylePreset3_Accent1" defaultPivotStyle="PivotStylePreset2_Accent1">
     <tableStyle name="TableStylePreset3_Accent1" pivot="0" count="7" xr9:uid="{59DB682C-5494-4EDE-A608-00C9E5F0F923}">
-      <tableStyleElement type="wholeTable" dxfId="6"/>
-      <tableStyleElement type="headerRow" dxfId="5"/>
-      <tableStyleElement type="totalRow" dxfId="4"/>
-      <tableStyleElement type="firstColumn" dxfId="3"/>
-      <tableStyleElement type="lastColumn" dxfId="2"/>
-      <tableStyleElement type="firstRowStripe" dxfId="1"/>
-      <tableStyleElement type="firstColumnStripe" dxfId="0"/>
+      <tableStyleElement type="wholeTable" dxfId="8"/>
+      <tableStyleElement type="headerRow" dxfId="7"/>
+      <tableStyleElement type="totalRow" dxfId="6"/>
+      <tableStyleElement type="firstColumn" dxfId="5"/>
+      <tableStyleElement type="lastColumn" dxfId="4"/>
+      <tableStyleElement type="firstRowStripe" dxfId="3"/>
+      <tableStyleElement type="firstColumnStripe" dxfId="2"/>
     </tableStyle>
     <tableStyle name="PivotStylePreset2_Accent1" table="0" count="10" xr9:uid="{267968C8-6FFD-4C36-ACC1-9EA1FD1885CA}">
-      <tableStyleElement type="headerRow" dxfId="16"/>
-      <tableStyleElement type="totalRow" dxfId="15"/>
-      <tableStyleElement type="firstRowStripe" dxfId="14"/>
-      <tableStyleElement type="firstColumnStripe" dxfId="13"/>
-      <tableStyleElement type="firstSubtotalRow" dxfId="12"/>
-      <tableStyleElement type="secondSubtotalRow" dxfId="11"/>
-      <tableStyleElement type="firstRowSubheading" dxfId="10"/>
-      <tableStyleElement type="secondRowSubheading" dxfId="9"/>
-      <tableStyleElement type="pageFieldLabels" dxfId="8"/>
-      <tableStyleElement type="pageFieldValues" dxfId="7"/>
+      <tableStyleElement type="headerRow" dxfId="18"/>
+      <tableStyleElement type="totalRow" dxfId="17"/>
+      <tableStyleElement type="firstRowStripe" dxfId="16"/>
+      <tableStyleElement type="firstColumnStripe" dxfId="15"/>
+      <tableStyleElement type="firstSubtotalRow" dxfId="14"/>
+      <tableStyleElement type="secondSubtotalRow" dxfId="13"/>
+      <tableStyleElement type="firstRowSubheading" dxfId="12"/>
+      <tableStyleElement type="secondRowSubheading" dxfId="11"/>
+      <tableStyleElement type="pageFieldLabels" dxfId="10"/>
+      <tableStyleElement type="pageFieldValues" dxfId="9"/>
     </tableStyle>
   </tableStyles>
   <extLst>
@@ -1210,55 +1397,136 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="4" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="4" outlineLevelCol="6"/>
+  <cols>
+    <col min="6" max="6" width="13.7142857142857" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" t="s">
+    <row r="1" ht="18.75" spans="1:7">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="6" t="s">
         <v>1</v>
       </c>
+      <c r="C1" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>6</v>
+      </c>
     </row>
-    <row r="2" spans="1:2">
-      <c r="A2" t="s">
+    <row r="2" ht="15.75" spans="1:7">
+      <c r="A2" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="7">
+        <v>45</v>
+      </c>
+      <c r="C2" s="7" t="str">
+        <f>IF(B2&gt;=50,"Pass","Fail")</f>
+        <v>Fail</v>
+      </c>
+      <c r="D2" s="7">
+        <f>COUNTIF(B2:B5,"&gt;50")</f>
         <v>2</v>
       </c>
-      <c r="B2">
-        <v>45</v>
+      <c r="E2" s="7">
+        <f>SUMIF(B2:B5,"&gt;50",B2:B5)</f>
+        <v>120</v>
+      </c>
+      <c r="F2" s="7">
+        <f>AVERAGE(B2:B5)</f>
+        <v>50</v>
+      </c>
+      <c r="G2" s="7" t="str">
+        <f>_xlfn.CONCAT(A2,"-",B2)</f>
+        <v>dev-45</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
-      <c r="A3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3">
+    <row r="3" ht="15.75" spans="1:7">
+      <c r="A3" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="7">
         <v>65</v>
       </c>
+      <c r="C3" s="7" t="str">
+        <f>IF(B3&gt;=50,"Pass","Fail")</f>
+        <v>Pass</v>
+      </c>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
     </row>
-    <row r="4" spans="1:2">
-      <c r="A4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4">
+    <row r="4" ht="15.75" spans="1:7">
+      <c r="A4" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="7">
         <v>55</v>
       </c>
+      <c r="C4" s="7" t="str">
+        <f>IF(B4&gt;=50,"Pass","Fail")</f>
+        <v>Pass</v>
+      </c>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="7"/>
     </row>
-    <row r="5" spans="1:2">
-      <c r="A5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5">
+    <row r="5" ht="15.75" spans="1:7">
+      <c r="A5" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="7">
         <v>35</v>
       </c>
+      <c r="C5" s="7" t="str">
+        <f>IF(B5&gt;=50,"Pass","Fail")</f>
+        <v>Fail</v>
+      </c>
+      <c r="D5" s="7"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="7"/>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="B1:B5">
+    <cfRule type="expression" dxfId="0" priority="5">
+      <formula>"B2&gt;50"</formula>
+    </cfRule>
+    <cfRule type="expression" priority="4">
+      <formula>"B2&gt;50"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="3">
+      <formula>"B2&gt;50"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B2:B5">
+    <cfRule type="expression" dxfId="0" priority="2">
+      <formula>B2&gt;50</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="1">
+      <formula>B2&gt;50</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
@@ -1267,53 +1535,279 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:L16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P6" sqref="P6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="4" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="11" customWidth="1"/>
+    <col min="7" max="7" width="12.7142857142857" customWidth="1"/>
+    <col min="11" max="11" width="11.5714285714286" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B1" t="s">
-        <v>7</v>
-      </c>
+    <row r="1" ht="15.75" spans="1:12">
+      <c r="A1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L1" s="5"/>
     </row>
-    <row r="2" spans="1:2">
-      <c r="A2" t="s">
+    <row r="2" ht="15.75" spans="1:11">
+      <c r="A2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" s="3">
+        <v>5000</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E2" s="2" t="str">
+        <f>INDEX(A2:D9,3,4)</f>
+        <v>Q2</v>
+      </c>
+      <c r="F2" s="3">
+        <f>MATCH(D4,D2:D9,0)</f>
+        <v>3</v>
+      </c>
+      <c r="G2" s="2" t="str" cm="1">
+        <f t="array" ref="G2:G8">_xlfn.UNIQUE(A2:A9)</f>
+        <v>meenakshi</v>
+      </c>
+      <c r="H2" s="2" t="str" cm="1">
+        <f t="array" ref="H2">_xlfn.IFS(C2&lt;5000,"Low",C2&lt;=7000,"Medium",C2&gt;7000,"High")</f>
+        <v>Medium</v>
+      </c>
+      <c r="I2" s="3">
+        <f>COUNTIF(C2:C9,6000)</f>
+        <v>2</v>
+      </c>
+      <c r="J2" s="3">
+        <f>SUMIFS(C2:C9,A2:A9,"pavi")</f>
+        <v>17000</v>
+      </c>
+      <c r="K2" s="3">
+        <f>AVERAGEIFS(C2:C9,A2:A9,"kiran")</f>
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="3" ht="15.75" spans="1:11">
+      <c r="A3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B2">
-        <v>45</v>
-      </c>
+      <c r="B3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" s="3">
+        <v>8000</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="2" t="str">
+        <v>pavi</v>
+      </c>
+      <c r="H3" s="2" t="str" cm="1">
+        <f t="array" ref="H3">_xlfn.IFS(C3&lt;5000,"Low",C3&lt;=7000,"Medium",C3&gt;7000,"High")</f>
+        <v>High</v>
+      </c>
+      <c r="I3" s="3"/>
+      <c r="J3" s="3"/>
+      <c r="K3" s="3"/>
     </row>
-    <row r="3" spans="1:2">
-      <c r="A3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3">
-        <v>65</v>
-      </c>
+    <row r="4" ht="15.75" spans="1:11">
+      <c r="A4" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" s="3">
+        <v>7000</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="2" t="str">
+        <v>niran</v>
+      </c>
+      <c r="H4" s="2" t="str" cm="1">
+        <f t="array" ref="H4">_xlfn.IFS(C4&lt;5000,"Low",C4&lt;=7000,"Medium",C4&gt;7000,"High")</f>
+        <v>Medium</v>
+      </c>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3"/>
+      <c r="K4" s="3"/>
     </row>
-    <row r="4" spans="1:2">
-      <c r="A4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4">
-        <v>55</v>
-      </c>
+    <row r="5" ht="15.75" spans="1:11">
+      <c r="A5" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" s="3">
+        <v>6000</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="2" t="str">
+        <v>kiran</v>
+      </c>
+      <c r="H5" s="2" t="str" cm="1">
+        <f t="array" ref="H5">_xlfn.IFS(C5&lt;5000,"Low",C5&lt;=7000,"Medium",C5&gt;7000,"High")</f>
+        <v>Medium</v>
+      </c>
+      <c r="I5" s="3"/>
+      <c r="J5" s="3"/>
+      <c r="K5" s="3"/>
     </row>
-    <row r="5" spans="1:2">
-      <c r="A5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5">
-        <v>35</v>
-      </c>
+    <row r="6" ht="15.75" spans="1:11">
+      <c r="A6" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C6" s="3">
+        <v>4000</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="2" t="str">
+        <v>rohit</v>
+      </c>
+      <c r="H6" s="2" t="str" cm="1">
+        <f t="array" ref="H6">_xlfn.IFS(C6&lt;5000,"Low",C6&lt;=7000,"Medium",C6&gt;7000,"High")</f>
+        <v>Low</v>
+      </c>
+      <c r="I6" s="3"/>
+      <c r="J6" s="3"/>
+      <c r="K6" s="3"/>
+    </row>
+    <row r="7" ht="15.75" spans="1:11">
+      <c r="A7" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" s="3">
+        <v>9000</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="2" t="str">
+        <v>haran</v>
+      </c>
+      <c r="H7" s="2" t="str" cm="1">
+        <f t="array" ref="H7">_xlfn.IFS(C7&lt;5000,"Low",C7&lt;=7000,"Medium",C7&gt;7000,"High")</f>
+        <v>High</v>
+      </c>
+      <c r="I7" s="3"/>
+      <c r="J7" s="3"/>
+      <c r="K7" s="3"/>
+    </row>
+    <row r="8" ht="15.75" spans="1:11">
+      <c r="A8" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" s="3">
+        <v>3000</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="2" t="str">
+        <v>meenu</v>
+      </c>
+      <c r="H8" s="2" t="str" cm="1">
+        <f t="array" ref="H8">_xlfn.IFS(C8&lt;5000,"Low",C8&lt;=7000,"Medium",C8&gt;7000,"High")</f>
+        <v>Low</v>
+      </c>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3"/>
+      <c r="K8" s="3"/>
+    </row>
+    <row r="9" ht="15.75" spans="1:11">
+      <c r="A9" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C9" s="3">
+        <v>6000</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="2" t="str" cm="1">
+        <f t="array" ref="H9">_xlfn.IFS(C9&lt;5000,"Low",C9&lt;=7000,"Medium",C9&gt;7000,"High")</f>
+        <v>Medium</v>
+      </c>
+      <c r="I9" s="3"/>
+      <c r="J9" s="3"/>
+      <c r="K9" s="3"/>
+    </row>
+    <row r="16" spans="8:8">
+      <c r="H16" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Excel.xlsx
+++ b/Excel.xlsx
@@ -4,11 +4,12 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19635" windowHeight="7620" activeTab="1"/>
+    <workbookView windowWidth="19635" windowHeight="7620" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -50,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="46">
   <si>
     <t>Name</t>
   </si>
@@ -152,6 +153,42 @@
   </si>
   <si>
     <t>meenu</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>Left</t>
+  </si>
+  <si>
+    <t>Right</t>
+  </si>
+  <si>
+    <t>Mid</t>
+  </si>
+  <si>
+    <t>Len</t>
+  </si>
+  <si>
+    <t>Substitute</t>
+  </si>
+  <si>
+    <t>Search</t>
+  </si>
+  <si>
+    <t>Isnumber</t>
+  </si>
+  <si>
+    <t>Apple Juice</t>
+  </si>
+  <si>
+    <t>mango shake</t>
+  </si>
+  <si>
+    <t>excel functions</t>
+  </si>
+  <si>
+    <t>data science</t>
   </si>
 </sst>
 </file>
@@ -164,7 +201,7 @@
     <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="24">
+  <fonts count="25">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -181,6 +218,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="12.5"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -196,9 +240,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="14"/>
-      <color theme="1"/>
+      <sz val="12"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -348,7 +391,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="35">
+  <fills count="40">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -357,6 +400,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="-0.25"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="-0.25"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -364,6 +419,24 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -695,73 +768,58 @@
     <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -770,65 +828,83 @@
     <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -838,16 +914,28 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1397,115 +1485,120 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="N14" sqref="N14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="4" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="4" outlineLevelCol="7"/>
   <cols>
     <col min="6" max="6" width="13.7142857142857" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="18.75" spans="1:7">
-      <c r="A1" s="6" t="s">
+    <row r="1" ht="15.75" spans="1:8">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="F1" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="G1" s="9" t="s">
         <v>6</v>
       </c>
+      <c r="H1" s="10"/>
     </row>
-    <row r="2" ht="15.75" spans="1:7">
-      <c r="A2" s="7" t="s">
+    <row r="2" ht="15.75" spans="1:8">
+      <c r="A2" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="7">
+      <c r="B2" s="11">
         <v>45</v>
       </c>
-      <c r="C2" s="7" t="str">
+      <c r="C2" s="11" t="str">
         <f>IF(B2&gt;=50,"Pass","Fail")</f>
         <v>Fail</v>
       </c>
-      <c r="D2" s="7">
+      <c r="D2" s="11">
         <f>COUNTIF(B2:B5,"&gt;50")</f>
         <v>2</v>
       </c>
-      <c r="E2" s="7">
+      <c r="E2" s="11">
         <f>SUMIF(B2:B5,"&gt;50",B2:B5)</f>
         <v>120</v>
       </c>
-      <c r="F2" s="7">
+      <c r="F2" s="11">
         <f>AVERAGE(B2:B5)</f>
         <v>50</v>
       </c>
-      <c r="G2" s="7" t="str">
+      <c r="G2" s="11" t="str">
         <f>_xlfn.CONCAT(A2,"-",B2)</f>
         <v>dev-45</v>
       </c>
+      <c r="H2" s="10"/>
     </row>
-    <row r="3" ht="15.75" spans="1:7">
-      <c r="A3" s="7" t="s">
+    <row r="3" ht="15.75" spans="1:8">
+      <c r="A3" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="7">
+      <c r="B3" s="12">
         <v>65</v>
       </c>
-      <c r="C3" s="7" t="str">
+      <c r="C3" s="11" t="str">
         <f>IF(B3&gt;=50,"Pass","Fail")</f>
         <v>Pass</v>
       </c>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="7"/>
+      <c r="D3" s="11"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="11"/>
+      <c r="G3" s="11"/>
+      <c r="H3" s="10"/>
     </row>
-    <row r="4" ht="15.75" spans="1:7">
-      <c r="A4" s="7" t="s">
+    <row r="4" ht="15.75" spans="1:8">
+      <c r="A4" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="7">
+      <c r="B4" s="12">
         <v>55</v>
       </c>
-      <c r="C4" s="7" t="str">
+      <c r="C4" s="11" t="str">
         <f>IF(B4&gt;=50,"Pass","Fail")</f>
         <v>Pass</v>
       </c>
-      <c r="D4" s="7"/>
-      <c r="E4" s="7"/>
-      <c r="F4" s="7"/>
-      <c r="G4" s="7"/>
+      <c r="D4" s="11"/>
+      <c r="E4" s="11"/>
+      <c r="F4" s="11"/>
+      <c r="G4" s="11"/>
+      <c r="H4" s="10"/>
     </row>
-    <row r="5" ht="15.75" spans="1:7">
-      <c r="A5" s="7" t="s">
+    <row r="5" ht="15.75" spans="1:8">
+      <c r="A5" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="7">
+      <c r="B5" s="11">
         <v>35</v>
       </c>
-      <c r="C5" s="7" t="str">
+      <c r="C5" s="11" t="str">
         <f>IF(B5&gt;=50,"Pass","Fail")</f>
         <v>Fail</v>
       </c>
-      <c r="D5" s="7"/>
-      <c r="E5" s="7"/>
-      <c r="F5" s="7"/>
-      <c r="G5" s="7"/>
+      <c r="D5" s="11"/>
+      <c r="E5" s="11"/>
+      <c r="F5" s="11"/>
+      <c r="G5" s="11"/>
+      <c r="H5" s="10"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="B1:B5">
@@ -1537,8 +1630,8 @@
   <sheetPr/>
   <dimension ref="A1:L16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P6" sqref="P6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>
@@ -1549,265 +1642,390 @@
   </cols>
   <sheetData>
     <row r="1" ht="15.75" spans="1:12">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="L1" s="5"/>
+      <c r="L1" s="8"/>
     </row>
     <row r="2" ht="15.75" spans="1:11">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="C2" s="3">
+      <c r="C2" s="6">
         <v>5000</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="E2" s="2" t="str">
+      <c r="E2" s="6" t="str">
         <f>INDEX(A2:D9,3,4)</f>
         <v>Q2</v>
       </c>
-      <c r="F2" s="3">
+      <c r="F2" s="6">
         <f>MATCH(D4,D2:D9,0)</f>
         <v>3</v>
       </c>
-      <c r="G2" s="2" t="str" cm="1">
+      <c r="G2" s="6" t="str" cm="1">
         <f t="array" ref="G2:G8">_xlfn.UNIQUE(A2:A9)</f>
         <v>meenakshi</v>
       </c>
-      <c r="H2" s="2" t="str" cm="1">
+      <c r="H2" s="6" t="str" cm="1">
         <f t="array" ref="H2">_xlfn.IFS(C2&lt;5000,"Low",C2&lt;=7000,"Medium",C2&gt;7000,"High")</f>
         <v>Medium</v>
       </c>
-      <c r="I2" s="3">
+      <c r="I2" s="6">
         <f>COUNTIF(C2:C9,6000)</f>
         <v>2</v>
       </c>
-      <c r="J2" s="3">
+      <c r="J2" s="6">
         <f>SUMIFS(C2:C9,A2:A9,"pavi")</f>
         <v>17000</v>
       </c>
-      <c r="K2" s="3">
+      <c r="K2" s="6">
         <f>AVERAGEIFS(C2:C9,A2:A9,"kiran")</f>
         <v>6000</v>
       </c>
     </row>
     <row r="3" ht="15.75" spans="1:11">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="C3" s="3">
+      <c r="C3" s="6">
         <v>8000</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="2" t="str">
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6" t="str">
         <v>pavi</v>
       </c>
-      <c r="H3" s="2" t="str" cm="1">
+      <c r="H3" s="6" t="str" cm="1">
         <f t="array" ref="H3">_xlfn.IFS(C3&lt;5000,"Low",C3&lt;=7000,"Medium",C3&gt;7000,"High")</f>
         <v>High</v>
       </c>
-      <c r="I3" s="3"/>
-      <c r="J3" s="3"/>
-      <c r="K3" s="3"/>
+      <c r="I3" s="6"/>
+      <c r="J3" s="6"/>
+      <c r="K3" s="6"/>
     </row>
     <row r="4" ht="15.75" spans="1:11">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="C4" s="3">
+      <c r="C4" s="6">
         <v>7000</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="2" t="str">
+      <c r="E4" s="6"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="6" t="str">
         <v>niran</v>
       </c>
-      <c r="H4" s="2" t="str" cm="1">
+      <c r="H4" s="6" t="str" cm="1">
         <f t="array" ref="H4">_xlfn.IFS(C4&lt;5000,"Low",C4&lt;=7000,"Medium",C4&gt;7000,"High")</f>
         <v>Medium</v>
       </c>
-      <c r="I4" s="3"/>
-      <c r="J4" s="3"/>
-      <c r="K4" s="3"/>
+      <c r="I4" s="6"/>
+      <c r="J4" s="6"/>
+      <c r="K4" s="6"/>
     </row>
     <row r="5" ht="15.75" spans="1:11">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="C5" s="3">
+      <c r="C5" s="6">
         <v>6000</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D5" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
-      <c r="G5" s="2" t="str">
+      <c r="E5" s="6"/>
+      <c r="F5" s="6"/>
+      <c r="G5" s="6" t="str">
         <v>kiran</v>
       </c>
-      <c r="H5" s="2" t="str" cm="1">
+      <c r="H5" s="6" t="str" cm="1">
         <f t="array" ref="H5">_xlfn.IFS(C5&lt;5000,"Low",C5&lt;=7000,"Medium",C5&gt;7000,"High")</f>
         <v>Medium</v>
       </c>
-      <c r="I5" s="3"/>
-      <c r="J5" s="3"/>
-      <c r="K5" s="3"/>
+      <c r="I5" s="6"/>
+      <c r="J5" s="6"/>
+      <c r="K5" s="6"/>
     </row>
     <row r="6" ht="15.75" spans="1:11">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="C6" s="3">
+      <c r="C6" s="6">
         <v>4000</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="D6" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
-      <c r="G6" s="2" t="str">
+      <c r="E6" s="6"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="6" t="str">
         <v>rohit</v>
       </c>
-      <c r="H6" s="2" t="str" cm="1">
+      <c r="H6" s="6" t="str" cm="1">
         <f t="array" ref="H6">_xlfn.IFS(C6&lt;5000,"Low",C6&lt;=7000,"Medium",C6&gt;7000,"High")</f>
         <v>Low</v>
       </c>
-      <c r="I6" s="3"/>
-      <c r="J6" s="3"/>
-      <c r="K6" s="3"/>
+      <c r="I6" s="6"/>
+      <c r="J6" s="6"/>
+      <c r="K6" s="6"/>
     </row>
     <row r="7" ht="15.75" spans="1:11">
-      <c r="A7" s="2" t="s">
+      <c r="A7" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="C7" s="3">
+      <c r="C7" s="6">
         <v>9000</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="D7" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
-      <c r="G7" s="2" t="str">
+      <c r="E7" s="6"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="6" t="str">
         <v>haran</v>
       </c>
-      <c r="H7" s="2" t="str" cm="1">
+      <c r="H7" s="6" t="str" cm="1">
         <f t="array" ref="H7">_xlfn.IFS(C7&lt;5000,"Low",C7&lt;=7000,"Medium",C7&gt;7000,"High")</f>
         <v>High</v>
       </c>
-      <c r="I7" s="3"/>
-      <c r="J7" s="3"/>
-      <c r="K7" s="3"/>
+      <c r="I7" s="6"/>
+      <c r="J7" s="6"/>
+      <c r="K7" s="6"/>
     </row>
     <row r="8" ht="15.75" spans="1:11">
-      <c r="A8" s="2" t="s">
+      <c r="A8" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="C8" s="3">
+      <c r="C8" s="6">
         <v>3000</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="D8" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
-      <c r="G8" s="2" t="str">
+      <c r="E8" s="6"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="6" t="str">
         <v>meenu</v>
       </c>
-      <c r="H8" s="2" t="str" cm="1">
+      <c r="H8" s="6" t="str" cm="1">
         <f t="array" ref="H8">_xlfn.IFS(C8&lt;5000,"Low",C8&lt;=7000,"Medium",C8&gt;7000,"High")</f>
         <v>Low</v>
       </c>
-      <c r="I8" s="3"/>
-      <c r="J8" s="3"/>
-      <c r="K8" s="3"/>
+      <c r="I8" s="6"/>
+      <c r="J8" s="6"/>
+      <c r="K8" s="6"/>
     </row>
     <row r="9" ht="15.75" spans="1:11">
-      <c r="A9" s="2" t="s">
+      <c r="A9" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="C9" s="3">
+      <c r="C9" s="6">
         <v>6000</v>
       </c>
-      <c r="D9" s="2" t="s">
+      <c r="D9" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
-      <c r="H9" s="2" t="str" cm="1">
+      <c r="E9" s="6"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="6" t="str" cm="1">
         <f t="array" ref="H9">_xlfn.IFS(C9&lt;5000,"Low",C9&lt;=7000,"Medium",C9&gt;7000,"High")</f>
         <v>Medium</v>
       </c>
-      <c r="I9" s="3"/>
-      <c r="J9" s="3"/>
-      <c r="K9" s="3"/>
+      <c r="I9" s="6"/>
+      <c r="J9" s="6"/>
+      <c r="K9" s="6"/>
     </row>
     <row r="16" spans="8:8">
-      <c r="H16" s="4"/>
+      <c r="H16" s="7"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:H5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H15" sqref="H15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="4" outlineLevelCol="7"/>
+  <cols>
+    <col min="1" max="1" width="15.5714285714286" customWidth="1"/>
+    <col min="6" max="6" width="10.8571428571429" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="15.75" spans="1:8">
+      <c r="A1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="2" ht="17.25" spans="1:8">
+      <c r="A2" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B2" s="3" t="str">
+        <f>LEFT(A2,5)</f>
+        <v>Apple</v>
+      </c>
+      <c r="C2" s="3" t="str">
+        <f>RIGHT(A2,5)</f>
+        <v>Juice</v>
+      </c>
+      <c r="D2" s="3" t="str">
+        <f>MID(A2,7,5)</f>
+        <v>Juice</v>
+      </c>
+      <c r="E2" s="4">
+        <f>LEN(A2)</f>
+        <v>11</v>
+      </c>
+      <c r="F2" s="3" t="str">
+        <f>SUBSTITUTE(A2,"Juice","ice")</f>
+        <v>Apple ice</v>
+      </c>
+      <c r="G2" s="4">
+        <f>SEARCH("Apple",A2)</f>
+        <v>1</v>
+      </c>
+      <c r="H2" s="4" t="b">
+        <f>ISNUMBER(SEARCH("Juice",A2))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" ht="17.25" spans="1:8">
+      <c r="A3" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B3" s="4"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4">
+        <f>LEN(A3)</f>
+        <v>11</v>
+      </c>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
+    </row>
+    <row r="4" ht="17.25" spans="1:8">
+      <c r="A4" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B4" s="4"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4">
+        <f>LEN(A4)</f>
+        <v>15</v>
+      </c>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="4"/>
+    </row>
+    <row r="5" ht="17.25" spans="1:8">
+      <c r="A5" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B5" s="4"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4">
+        <f>LEN(A5)</f>
+        <v>12</v>
+      </c>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Excel.xlsx
+++ b/Excel.xlsx
@@ -4,12 +4,13 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19635" windowHeight="7620" activeTab="2"/>
+    <workbookView windowWidth="19635" windowHeight="7620" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -51,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="70">
   <si>
     <t>Name</t>
   </si>
@@ -189,6 +190,78 @@
   </si>
   <si>
     <t>data science</t>
+  </si>
+  <si>
+    <t>PRODUCT ID</t>
+  </si>
+  <si>
+    <t>PRODUCTNAME</t>
+  </si>
+  <si>
+    <t>CATEGORY</t>
+  </si>
+  <si>
+    <t>PRICE</t>
+  </si>
+  <si>
+    <t>vlookup</t>
+  </si>
+  <si>
+    <t>P001</t>
+  </si>
+  <si>
+    <t>Lapttop</t>
+  </si>
+  <si>
+    <t>electronic</t>
+  </si>
+  <si>
+    <t>P002</t>
+  </si>
+  <si>
+    <t>Mouse</t>
+  </si>
+  <si>
+    <t>P003</t>
+  </si>
+  <si>
+    <t>Desk</t>
+  </si>
+  <si>
+    <t>furniture</t>
+  </si>
+  <si>
+    <t>P004</t>
+  </si>
+  <si>
+    <t>Chair</t>
+  </si>
+  <si>
+    <t>P005</t>
+  </si>
+  <si>
+    <t>Monitor</t>
+  </si>
+  <si>
+    <t>P006</t>
+  </si>
+  <si>
+    <t>Lamp</t>
+  </si>
+  <si>
+    <t>HLOOKUP</t>
+  </si>
+  <si>
+    <t>XLOOKUP</t>
+  </si>
+  <si>
+    <t>COUNT</t>
+  </si>
+  <si>
+    <t>COUNTA</t>
+  </si>
+  <si>
+    <t>Laptop</t>
   </si>
 </sst>
 </file>
@@ -218,14 +291,14 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12.5"/>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
+      <sz val="12.5"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -391,12 +464,30 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="40">
+  <fills count="43">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="-0.25"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -774,7 +865,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -798,16 +889,16 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -816,108 +907,141 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="24" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
@@ -926,16 +1050,16 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1497,108 +1621,108 @@
   </cols>
   <sheetData>
     <row r="1" ht="15.75" spans="1:8">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="D1" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="E1" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="9" t="s">
+      <c r="F1" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="9" t="s">
+      <c r="G1" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="10"/>
+      <c r="H1" s="21"/>
     </row>
     <row r="2" ht="15.75" spans="1:8">
-      <c r="A2" s="11" t="s">
+      <c r="A2" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="11">
+      <c r="B2" s="22">
         <v>45</v>
       </c>
-      <c r="C2" s="11" t="str">
+      <c r="C2" s="22" t="str">
         <f>IF(B2&gt;=50,"Pass","Fail")</f>
         <v>Fail</v>
       </c>
-      <c r="D2" s="11">
+      <c r="D2" s="22">
         <f>COUNTIF(B2:B5,"&gt;50")</f>
         <v>2</v>
       </c>
-      <c r="E2" s="11">
+      <c r="E2" s="22">
         <f>SUMIF(B2:B5,"&gt;50",B2:B5)</f>
         <v>120</v>
       </c>
-      <c r="F2" s="11">
+      <c r="F2" s="22">
         <f>AVERAGE(B2:B5)</f>
         <v>50</v>
       </c>
-      <c r="G2" s="11" t="str">
+      <c r="G2" s="22" t="str">
         <f>_xlfn.CONCAT(A2,"-",B2)</f>
         <v>dev-45</v>
       </c>
-      <c r="H2" s="10"/>
+      <c r="H2" s="21"/>
     </row>
     <row r="3" ht="15.75" spans="1:8">
-      <c r="A3" s="11" t="s">
+      <c r="A3" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="12">
+      <c r="B3" s="23">
         <v>65</v>
       </c>
-      <c r="C3" s="11" t="str">
+      <c r="C3" s="22" t="str">
         <f>IF(B3&gt;=50,"Pass","Fail")</f>
         <v>Pass</v>
       </c>
-      <c r="D3" s="11"/>
-      <c r="E3" s="11"/>
-      <c r="F3" s="11"/>
-      <c r="G3" s="11"/>
-      <c r="H3" s="10"/>
+      <c r="D3" s="22"/>
+      <c r="E3" s="22"/>
+      <c r="F3" s="22"/>
+      <c r="G3" s="22"/>
+      <c r="H3" s="21"/>
     </row>
     <row r="4" ht="15.75" spans="1:8">
-      <c r="A4" s="11" t="s">
+      <c r="A4" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="12">
+      <c r="B4" s="23">
         <v>55</v>
       </c>
-      <c r="C4" s="11" t="str">
+      <c r="C4" s="22" t="str">
         <f>IF(B4&gt;=50,"Pass","Fail")</f>
         <v>Pass</v>
       </c>
-      <c r="D4" s="11"/>
-      <c r="E4" s="11"/>
-      <c r="F4" s="11"/>
-      <c r="G4" s="11"/>
-      <c r="H4" s="10"/>
+      <c r="D4" s="22"/>
+      <c r="E4" s="22"/>
+      <c r="F4" s="22"/>
+      <c r="G4" s="22"/>
+      <c r="H4" s="21"/>
     </row>
     <row r="5" ht="15.75" spans="1:8">
-      <c r="A5" s="11" t="s">
+      <c r="A5" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="11">
+      <c r="B5" s="22">
         <v>35</v>
       </c>
-      <c r="C5" s="11" t="str">
+      <c r="C5" s="22" t="str">
         <f>IF(B5&gt;=50,"Pass","Fail")</f>
         <v>Fail</v>
       </c>
-      <c r="D5" s="11"/>
-      <c r="E5" s="11"/>
-      <c r="F5" s="11"/>
-      <c r="G5" s="11"/>
-      <c r="H5" s="10"/>
+      <c r="D5" s="22"/>
+      <c r="E5" s="22"/>
+      <c r="F5" s="22"/>
+      <c r="G5" s="22"/>
+      <c r="H5" s="21"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="B1:B5">
@@ -1642,265 +1766,265 @@
   </cols>
   <sheetData>
     <row r="1" ht="15.75" spans="1:12">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="G1" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="H1" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="I1" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="J1" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="K1" s="5" t="s">
+      <c r="K1" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="L1" s="8"/>
+      <c r="L1" s="19"/>
     </row>
     <row r="2" ht="15.75" spans="1:11">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="C2" s="6">
+      <c r="C2" s="17">
         <v>5000</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="E2" s="6" t="str">
+      <c r="E2" s="17" t="str">
         <f>INDEX(A2:D9,3,4)</f>
         <v>Q2</v>
       </c>
-      <c r="F2" s="6">
+      <c r="F2" s="17">
         <f>MATCH(D4,D2:D9,0)</f>
         <v>3</v>
       </c>
-      <c r="G2" s="6" t="str" cm="1">
+      <c r="G2" s="17" t="str" cm="1">
         <f t="array" ref="G2:G8">_xlfn.UNIQUE(A2:A9)</f>
         <v>meenakshi</v>
       </c>
-      <c r="H2" s="6" t="str" cm="1">
+      <c r="H2" s="17" t="str" cm="1">
         <f t="array" ref="H2">_xlfn.IFS(C2&lt;5000,"Low",C2&lt;=7000,"Medium",C2&gt;7000,"High")</f>
         <v>Medium</v>
       </c>
-      <c r="I2" s="6">
+      <c r="I2" s="17">
         <f>COUNTIF(C2:C9,6000)</f>
         <v>2</v>
       </c>
-      <c r="J2" s="6">
+      <c r="J2" s="17">
         <f>SUMIFS(C2:C9,A2:A9,"pavi")</f>
         <v>17000</v>
       </c>
-      <c r="K2" s="6">
+      <c r="K2" s="17">
         <f>AVERAGEIFS(C2:C9,A2:A9,"kiran")</f>
         <v>6000</v>
       </c>
     </row>
     <row r="3" ht="15.75" spans="1:11">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="C3" s="6">
+      <c r="C3" s="17">
         <v>8000</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D3" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="6" t="str">
+      <c r="E3" s="17"/>
+      <c r="F3" s="17"/>
+      <c r="G3" s="17" t="str">
         <v>pavi</v>
       </c>
-      <c r="H3" s="6" t="str" cm="1">
+      <c r="H3" s="17" t="str" cm="1">
         <f t="array" ref="H3">_xlfn.IFS(C3&lt;5000,"Low",C3&lt;=7000,"Medium",C3&gt;7000,"High")</f>
         <v>High</v>
       </c>
-      <c r="I3" s="6"/>
-      <c r="J3" s="6"/>
-      <c r="K3" s="6"/>
+      <c r="I3" s="17"/>
+      <c r="J3" s="17"/>
+      <c r="K3" s="17"/>
     </row>
     <row r="4" ht="15.75" spans="1:11">
-      <c r="A4" s="6" t="s">
+      <c r="A4" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="C4" s="6">
+      <c r="C4" s="17">
         <v>7000</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="D4" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="E4" s="6"/>
-      <c r="F4" s="6"/>
-      <c r="G4" s="6" t="str">
+      <c r="E4" s="17"/>
+      <c r="F4" s="17"/>
+      <c r="G4" s="17" t="str">
         <v>niran</v>
       </c>
-      <c r="H4" s="6" t="str" cm="1">
+      <c r="H4" s="17" t="str" cm="1">
         <f t="array" ref="H4">_xlfn.IFS(C4&lt;5000,"Low",C4&lt;=7000,"Medium",C4&gt;7000,"High")</f>
         <v>Medium</v>
       </c>
-      <c r="I4" s="6"/>
-      <c r="J4" s="6"/>
-      <c r="K4" s="6"/>
+      <c r="I4" s="17"/>
+      <c r="J4" s="17"/>
+      <c r="K4" s="17"/>
     </row>
     <row r="5" ht="15.75" spans="1:11">
-      <c r="A5" s="6" t="s">
+      <c r="A5" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="C5" s="6">
+      <c r="C5" s="17">
         <v>6000</v>
       </c>
-      <c r="D5" s="6" t="s">
+      <c r="D5" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="E5" s="6"/>
-      <c r="F5" s="6"/>
-      <c r="G5" s="6" t="str">
+      <c r="E5" s="17"/>
+      <c r="F5" s="17"/>
+      <c r="G5" s="17" t="str">
         <v>kiran</v>
       </c>
-      <c r="H5" s="6" t="str" cm="1">
+      <c r="H5" s="17" t="str" cm="1">
         <f t="array" ref="H5">_xlfn.IFS(C5&lt;5000,"Low",C5&lt;=7000,"Medium",C5&gt;7000,"High")</f>
         <v>Medium</v>
       </c>
-      <c r="I5" s="6"/>
-      <c r="J5" s="6"/>
-      <c r="K5" s="6"/>
+      <c r="I5" s="17"/>
+      <c r="J5" s="17"/>
+      <c r="K5" s="17"/>
     </row>
     <row r="6" ht="15.75" spans="1:11">
-      <c r="A6" s="6" t="s">
+      <c r="A6" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="C6" s="6">
+      <c r="C6" s="17">
         <v>4000</v>
       </c>
-      <c r="D6" s="6" t="s">
+      <c r="D6" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="E6" s="6"/>
-      <c r="F6" s="6"/>
-      <c r="G6" s="6" t="str">
+      <c r="E6" s="17"/>
+      <c r="F6" s="17"/>
+      <c r="G6" s="17" t="str">
         <v>rohit</v>
       </c>
-      <c r="H6" s="6" t="str" cm="1">
+      <c r="H6" s="17" t="str" cm="1">
         <f t="array" ref="H6">_xlfn.IFS(C6&lt;5000,"Low",C6&lt;=7000,"Medium",C6&gt;7000,"High")</f>
         <v>Low</v>
       </c>
-      <c r="I6" s="6"/>
-      <c r="J6" s="6"/>
-      <c r="K6" s="6"/>
+      <c r="I6" s="17"/>
+      <c r="J6" s="17"/>
+      <c r="K6" s="17"/>
     </row>
     <row r="7" ht="15.75" spans="1:11">
-      <c r="A7" s="6" t="s">
+      <c r="A7" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="C7" s="6">
+      <c r="C7" s="17">
         <v>9000</v>
       </c>
-      <c r="D7" s="6" t="s">
+      <c r="D7" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="E7" s="6"/>
-      <c r="F7" s="6"/>
-      <c r="G7" s="6" t="str">
+      <c r="E7" s="17"/>
+      <c r="F7" s="17"/>
+      <c r="G7" s="17" t="str">
         <v>haran</v>
       </c>
-      <c r="H7" s="6" t="str" cm="1">
+      <c r="H7" s="17" t="str" cm="1">
         <f t="array" ref="H7">_xlfn.IFS(C7&lt;5000,"Low",C7&lt;=7000,"Medium",C7&gt;7000,"High")</f>
         <v>High</v>
       </c>
-      <c r="I7" s="6"/>
-      <c r="J7" s="6"/>
-      <c r="K7" s="6"/>
+      <c r="I7" s="17"/>
+      <c r="J7" s="17"/>
+      <c r="K7" s="17"/>
     </row>
     <row r="8" ht="15.75" spans="1:11">
-      <c r="A8" s="6" t="s">
+      <c r="A8" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="C8" s="6">
+      <c r="C8" s="17">
         <v>3000</v>
       </c>
-      <c r="D8" s="6" t="s">
+      <c r="D8" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="E8" s="6"/>
-      <c r="F8" s="6"/>
-      <c r="G8" s="6" t="str">
+      <c r="E8" s="17"/>
+      <c r="F8" s="17"/>
+      <c r="G8" s="17" t="str">
         <v>meenu</v>
       </c>
-      <c r="H8" s="6" t="str" cm="1">
+      <c r="H8" s="17" t="str" cm="1">
         <f t="array" ref="H8">_xlfn.IFS(C8&lt;5000,"Low",C8&lt;=7000,"Medium",C8&gt;7000,"High")</f>
         <v>Low</v>
       </c>
-      <c r="I8" s="6"/>
-      <c r="J8" s="6"/>
-      <c r="K8" s="6"/>
+      <c r="I8" s="17"/>
+      <c r="J8" s="17"/>
+      <c r="K8" s="17"/>
     </row>
     <row r="9" ht="15.75" spans="1:11">
-      <c r="A9" s="6" t="s">
+      <c r="A9" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="B9" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="C9" s="6">
+      <c r="C9" s="17">
         <v>6000</v>
       </c>
-      <c r="D9" s="6" t="s">
+      <c r="D9" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="E9" s="6"/>
-      <c r="F9" s="6"/>
-      <c r="G9" s="6"/>
-      <c r="H9" s="6" t="str" cm="1">
+      <c r="E9" s="17"/>
+      <c r="F9" s="17"/>
+      <c r="G9" s="17"/>
+      <c r="H9" s="17" t="str" cm="1">
         <f t="array" ref="H9">_xlfn.IFS(C9&lt;5000,"Low",C9&lt;=7000,"Medium",C9&gt;7000,"High")</f>
         <v>Medium</v>
       </c>
-      <c r="I9" s="6"/>
-      <c r="J9" s="6"/>
-      <c r="K9" s="6"/>
+      <c r="I9" s="17"/>
+      <c r="J9" s="17"/>
+      <c r="K9" s="17"/>
     </row>
     <row r="16" spans="8:8">
-      <c r="H16" s="7"/>
+      <c r="H16" s="18"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1913,7 +2037,7 @@
   <sheetPr/>
   <dimension ref="A1:H5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
@@ -1924,108 +2048,491 @@
   </cols>
   <sheetData>
     <row r="1" ht="15.75" spans="1:8">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="14" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="2" ht="17.25" spans="1:8">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="B2" s="3" t="str">
+      <c r="B2" s="15" t="str">
         <f>LEFT(A2,5)</f>
         <v>Apple</v>
       </c>
-      <c r="C2" s="3" t="str">
+      <c r="C2" s="15" t="str">
         <f>RIGHT(A2,5)</f>
         <v>Juice</v>
       </c>
-      <c r="D2" s="3" t="str">
+      <c r="D2" s="15" t="str">
         <f>MID(A2,7,5)</f>
         <v>Juice</v>
       </c>
-      <c r="E2" s="4">
+      <c r="E2" s="15">
         <f>LEN(A2)</f>
         <v>11</v>
       </c>
-      <c r="F2" s="3" t="str">
+      <c r="F2" s="15" t="str">
         <f>SUBSTITUTE(A2,"Juice","ice")</f>
         <v>Apple ice</v>
       </c>
-      <c r="G2" s="4">
+      <c r="G2" s="15">
         <f>SEARCH("Apple",A2)</f>
         <v>1</v>
       </c>
-      <c r="H2" s="4" t="b">
+      <c r="H2" s="15" t="b">
         <f>ISNUMBER(SEARCH("Juice",A2))</f>
         <v>1</v>
       </c>
     </row>
     <row r="3" ht="17.25" spans="1:8">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="B3" s="4"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4">
+      <c r="B3" s="15"/>
+      <c r="C3" s="15"/>
+      <c r="D3" s="15"/>
+      <c r="E3" s="15">
         <f>LEN(A3)</f>
         <v>11</v>
       </c>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
-      <c r="H3" s="4"/>
+      <c r="F3" s="15"/>
+      <c r="G3" s="15"/>
+      <c r="H3" s="15"/>
     </row>
     <row r="4" ht="17.25" spans="1:8">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="B4" s="4"/>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4">
+      <c r="B4" s="15"/>
+      <c r="C4" s="15"/>
+      <c r="D4" s="15"/>
+      <c r="E4" s="15">
         <f>LEN(A4)</f>
         <v>15</v>
       </c>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4"/>
-      <c r="H4" s="4"/>
+      <c r="F4" s="15"/>
+      <c r="G4" s="15"/>
+      <c r="H4" s="15"/>
     </row>
     <row r="5" ht="17.25" spans="1:8">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="B5" s="4"/>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4">
+      <c r="B5" s="15"/>
+      <c r="C5" s="15"/>
+      <c r="D5" s="15"/>
+      <c r="E5" s="15">
         <f>LEN(A5)</f>
         <v>12</v>
       </c>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4"/>
-      <c r="H5" s="4"/>
+      <c r="F5" s="15"/>
+      <c r="G5" s="15"/>
+      <c r="H5" s="15"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:L16"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N9" sqref="N9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="15.7142857142857" customWidth="1"/>
+    <col min="2" max="2" width="16.1428571428571" customWidth="1"/>
+    <col min="3" max="3" width="14" customWidth="1"/>
+    <col min="4" max="4" width="9.57142857142857" customWidth="1"/>
+    <col min="7" max="7" width="10.4285714285714" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="15.75" spans="1:12">
+      <c r="A1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="F1" s="2"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="3"/>
+    </row>
+    <row r="2" ht="15.75" spans="1:12">
+      <c r="A2" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="D2" s="5">
+        <v>1200</v>
+      </c>
+      <c r="E2" s="5">
+        <f>VLOOKUP(A4,A2:D7,4,FALSE)</f>
+        <v>300</v>
+      </c>
+      <c r="F2" s="5"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
+      <c r="K2" s="3"/>
+      <c r="L2" s="3"/>
+    </row>
+    <row r="3" ht="15.75" spans="1:12">
+      <c r="A3" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="D3" s="5">
+        <v>25</v>
+      </c>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="3"/>
+      <c r="J3" s="3"/>
+      <c r="K3" s="3"/>
+      <c r="L3" s="3"/>
+    </row>
+    <row r="4" ht="15.75" spans="1:12">
+      <c r="A4" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="D4" s="5">
+        <v>300</v>
+      </c>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3"/>
+      <c r="K4" s="3"/>
+      <c r="L4" s="3"/>
+    </row>
+    <row r="5" ht="15.75" spans="1:12">
+      <c r="A5" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="D5" s="5">
+        <v>150</v>
+      </c>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
+      <c r="J5" s="3"/>
+      <c r="K5" s="3"/>
+      <c r="L5" s="3"/>
+    </row>
+    <row r="6" ht="15.75" spans="1:12">
+      <c r="A6" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="D6" s="5">
+        <v>200</v>
+      </c>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
+      <c r="J6" s="3"/>
+      <c r="K6" s="3"/>
+      <c r="L6" s="3"/>
+    </row>
+    <row r="7" ht="15.75" spans="1:12">
+      <c r="A7" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="D7" s="5">
+        <v>80</v>
+      </c>
+      <c r="E7" s="6"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
+      <c r="J7" s="3"/>
+      <c r="K7" s="3"/>
+      <c r="L7" s="3"/>
+    </row>
+    <row r="8" ht="15.75" spans="1:12">
+      <c r="A8" s="3"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3"/>
+      <c r="K8" s="3"/>
+      <c r="L8" s="3"/>
+    </row>
+    <row r="9" ht="15.75" spans="1:12">
+      <c r="A9" s="7"/>
+      <c r="B9" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="E9" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="F9" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="H9" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="I9" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="J9" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="K9" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="L9" s="3"/>
+    </row>
+    <row r="10" ht="15.75" spans="1:12">
+      <c r="A10" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="E10" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="F10" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="G10" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="H10" s="10">
+        <f>HLOOKUP("P003",B9:G12,4,FALSE)</f>
+        <v>300</v>
+      </c>
+      <c r="I10" s="12" t="str">
+        <f>_xlfn.XLOOKUP(A3,A2:A7,B2:B7,"NOT FOUND")</f>
+        <v>Mouse</v>
+      </c>
+      <c r="J10" s="10">
+        <f>COUNT(D2:D7)</f>
+        <v>6</v>
+      </c>
+      <c r="K10" s="10">
+        <f>COUNTA(B2:B7)</f>
+        <v>6</v>
+      </c>
+      <c r="L10" s="3"/>
+    </row>
+    <row r="11" ht="15.75" spans="1:12">
+      <c r="A11" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="D11" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="E11" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="F11" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="G11" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="H11" s="10"/>
+      <c r="I11" s="10"/>
+      <c r="J11" s="10"/>
+      <c r="K11" s="10"/>
+      <c r="L11" s="3"/>
+    </row>
+    <row r="12" ht="15.75" spans="1:12">
+      <c r="A12" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="B12" s="11">
+        <v>1200</v>
+      </c>
+      <c r="C12" s="11">
+        <v>25</v>
+      </c>
+      <c r="D12" s="11">
+        <v>300</v>
+      </c>
+      <c r="E12" s="11">
+        <v>150</v>
+      </c>
+      <c r="F12" s="11">
+        <v>200</v>
+      </c>
+      <c r="G12" s="11">
+        <v>80</v>
+      </c>
+      <c r="H12" s="10"/>
+      <c r="I12" s="10"/>
+      <c r="J12" s="10"/>
+      <c r="K12" s="10"/>
+      <c r="L12" s="3"/>
+    </row>
+    <row r="13" ht="15.75" spans="1:12">
+      <c r="A13" s="10"/>
+      <c r="B13" s="10"/>
+      <c r="C13" s="10"/>
+      <c r="D13" s="10"/>
+      <c r="E13" s="10"/>
+      <c r="F13" s="10"/>
+      <c r="G13" s="10"/>
+      <c r="H13" s="10"/>
+      <c r="I13" s="10"/>
+      <c r="J13" s="10"/>
+      <c r="K13" s="10"/>
+      <c r="L13" s="3"/>
+    </row>
+    <row r="14" ht="15.75" spans="1:12">
+      <c r="A14" s="10"/>
+      <c r="B14" s="10"/>
+      <c r="C14" s="10"/>
+      <c r="D14" s="10"/>
+      <c r="E14" s="10"/>
+      <c r="F14" s="10"/>
+      <c r="G14" s="10"/>
+      <c r="H14" s="10"/>
+      <c r="I14" s="10"/>
+      <c r="J14" s="10"/>
+      <c r="K14" s="10"/>
+      <c r="L14" s="3"/>
+    </row>
+    <row r="15" ht="15.75" spans="1:12">
+      <c r="A15" s="3"/>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="3"/>
+      <c r="J15" s="3"/>
+      <c r="K15" s="3"/>
+      <c r="L15" s="3"/>
+    </row>
+    <row r="16" ht="15.75" spans="1:12">
+      <c r="A16" s="3"/>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="3"/>
+      <c r="J16" s="3"/>
+      <c r="K16" s="3"/>
+      <c r="L16" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Excel.xlsx
+++ b/Excel.xlsx
@@ -4,13 +4,14 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19635" windowHeight="7620" activeTab="3"/>
+    <workbookView windowWidth="19635" windowHeight="7620" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
     <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
+    <sheet name="Sheet5" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -52,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="84">
   <si>
     <t>Name</t>
   </si>
@@ -262,17 +263,61 @@
   </si>
   <si>
     <t>Laptop</t>
+  </si>
+  <si>
+    <t>PROJECT ID</t>
+  </si>
+  <si>
+    <t>START DATE</t>
+  </si>
+  <si>
+    <t>END DATE</t>
+  </si>
+  <si>
+    <t>TODAY</t>
+  </si>
+  <si>
+    <t>NOW</t>
+  </si>
+  <si>
+    <t>YEAR</t>
+  </si>
+  <si>
+    <t>MONTH</t>
+  </si>
+  <si>
+    <t>NETWORKDAYS</t>
+  </si>
+  <si>
+    <t>EOMONTH</t>
+  </si>
+  <si>
+    <t>PRJ001</t>
+  </si>
+  <si>
+    <t>PRJ002</t>
+  </si>
+  <si>
+    <t>PRJ003</t>
+  </si>
+  <si>
+    <t>PRJ004</t>
+  </si>
+  <si>
+    <t>PRJ005</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
-  <numFmts count="4">
+  <numFmts count="6">
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="180" formatCode="dd/mm/yyyy"/>
+    <numFmt numFmtId="181" formatCode="dd/mm/yyyy\ hh:mm"/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -464,12 +509,24 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="43">
+  <fills count="45">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="-0.25"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -865,7 +922,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -889,16 +946,16 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -907,85 +964,85 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -993,55 +1050,58 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
@@ -1050,16 +1110,13 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1621,28 +1678,28 @@
   </cols>
   <sheetData>
     <row r="1" ht="15.75" spans="1:8">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="20" t="s">
+      <c r="B1" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="20" t="s">
+      <c r="C1" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="20" t="s">
+      <c r="D1" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="20" t="s">
+      <c r="E1" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="20" t="s">
+      <c r="F1" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="20" t="s">
+      <c r="G1" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="21"/>
+      <c r="H1" s="8"/>
     </row>
     <row r="2" ht="15.75" spans="1:8">
       <c r="A2" s="22" t="s">
@@ -1671,7 +1728,7 @@
         <f>_xlfn.CONCAT(A2,"-",B2)</f>
         <v>dev-45</v>
       </c>
-      <c r="H2" s="21"/>
+      <c r="H2" s="8"/>
     </row>
     <row r="3" ht="15.75" spans="1:8">
       <c r="A3" s="22" t="s">
@@ -1688,7 +1745,7 @@
       <c r="E3" s="22"/>
       <c r="F3" s="22"/>
       <c r="G3" s="22"/>
-      <c r="H3" s="21"/>
+      <c r="H3" s="8"/>
     </row>
     <row r="4" ht="15.75" spans="1:8">
       <c r="A4" s="22" t="s">
@@ -1705,7 +1762,7 @@
       <c r="E4" s="22"/>
       <c r="F4" s="22"/>
       <c r="G4" s="22"/>
-      <c r="H4" s="21"/>
+      <c r="H4" s="8"/>
     </row>
     <row r="5" ht="15.75" spans="1:8">
       <c r="A5" s="22" t="s">
@@ -1722,7 +1779,7 @@
       <c r="E5" s="22"/>
       <c r="F5" s="22"/>
       <c r="G5" s="22"/>
-      <c r="H5" s="21"/>
+      <c r="H5" s="8"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="B1:B5">
@@ -1766,265 +1823,265 @@
   </cols>
   <sheetData>
     <row r="1" ht="15.75" spans="1:12">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="B1" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="16" t="s">
+      <c r="C1" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="D1" s="16" t="s">
+      <c r="D1" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="E1" s="16" t="s">
+      <c r="E1" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="F1" s="16" t="s">
+      <c r="F1" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="G1" s="16" t="s">
+      <c r="G1" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="H1" s="16" t="s">
+      <c r="H1" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="I1" s="16" t="s">
+      <c r="I1" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="J1" s="16" t="s">
+      <c r="J1" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="K1" s="16" t="s">
+      <c r="K1" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="L1" s="19"/>
+      <c r="L1" s="20"/>
     </row>
     <row r="2" ht="15.75" spans="1:11">
-      <c r="A2" s="17" t="s">
+      <c r="A2" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="B2" s="17" t="s">
+      <c r="B2" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="C2" s="17">
+      <c r="C2" s="18">
         <v>5000</v>
       </c>
-      <c r="D2" s="17" t="s">
+      <c r="D2" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="E2" s="17" t="str">
+      <c r="E2" s="18" t="str">
         <f>INDEX(A2:D9,3,4)</f>
         <v>Q2</v>
       </c>
-      <c r="F2" s="17">
+      <c r="F2" s="18">
         <f>MATCH(D4,D2:D9,0)</f>
         <v>3</v>
       </c>
-      <c r="G2" s="17" t="str" cm="1">
+      <c r="G2" s="18" t="str" cm="1">
         <f t="array" ref="G2:G8">_xlfn.UNIQUE(A2:A9)</f>
         <v>meenakshi</v>
       </c>
-      <c r="H2" s="17" t="str" cm="1">
+      <c r="H2" s="18" t="str" cm="1">
         <f t="array" ref="H2">_xlfn.IFS(C2&lt;5000,"Low",C2&lt;=7000,"Medium",C2&gt;7000,"High")</f>
         <v>Medium</v>
       </c>
-      <c r="I2" s="17">
+      <c r="I2" s="18">
         <f>COUNTIF(C2:C9,6000)</f>
         <v>2</v>
       </c>
-      <c r="J2" s="17">
+      <c r="J2" s="18">
         <f>SUMIFS(C2:C9,A2:A9,"pavi")</f>
         <v>17000</v>
       </c>
-      <c r="K2" s="17">
+      <c r="K2" s="18">
         <f>AVERAGEIFS(C2:C9,A2:A9,"kiran")</f>
         <v>6000</v>
       </c>
     </row>
     <row r="3" ht="15.75" spans="1:11">
-      <c r="A3" s="17" t="s">
+      <c r="A3" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="17" t="s">
+      <c r="B3" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="C3" s="17">
+      <c r="C3" s="18">
         <v>8000</v>
       </c>
-      <c r="D3" s="17" t="s">
+      <c r="D3" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="E3" s="17"/>
-      <c r="F3" s="17"/>
-      <c r="G3" s="17" t="str">
+      <c r="E3" s="18"/>
+      <c r="F3" s="18"/>
+      <c r="G3" s="18" t="str">
         <v>pavi</v>
       </c>
-      <c r="H3" s="17" t="str" cm="1">
+      <c r="H3" s="18" t="str" cm="1">
         <f t="array" ref="H3">_xlfn.IFS(C3&lt;5000,"Low",C3&lt;=7000,"Medium",C3&gt;7000,"High")</f>
         <v>High</v>
       </c>
-      <c r="I3" s="17"/>
-      <c r="J3" s="17"/>
-      <c r="K3" s="17"/>
+      <c r="I3" s="18"/>
+      <c r="J3" s="18"/>
+      <c r="K3" s="18"/>
     </row>
     <row r="4" ht="15.75" spans="1:11">
-      <c r="A4" s="17" t="s">
+      <c r="A4" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="B4" s="17" t="s">
+      <c r="B4" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="C4" s="17">
+      <c r="C4" s="18">
         <v>7000</v>
       </c>
-      <c r="D4" s="17" t="s">
+      <c r="D4" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="E4" s="17"/>
-      <c r="F4" s="17"/>
-      <c r="G4" s="17" t="str">
+      <c r="E4" s="18"/>
+      <c r="F4" s="18"/>
+      <c r="G4" s="18" t="str">
         <v>niran</v>
       </c>
-      <c r="H4" s="17" t="str" cm="1">
+      <c r="H4" s="18" t="str" cm="1">
         <f t="array" ref="H4">_xlfn.IFS(C4&lt;5000,"Low",C4&lt;=7000,"Medium",C4&gt;7000,"High")</f>
         <v>Medium</v>
       </c>
-      <c r="I4" s="17"/>
-      <c r="J4" s="17"/>
-      <c r="K4" s="17"/>
+      <c r="I4" s="18"/>
+      <c r="J4" s="18"/>
+      <c r="K4" s="18"/>
     </row>
     <row r="5" ht="15.75" spans="1:11">
-      <c r="A5" s="17" t="s">
+      <c r="A5" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="B5" s="17" t="s">
+      <c r="B5" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="C5" s="17">
+      <c r="C5" s="18">
         <v>6000</v>
       </c>
-      <c r="D5" s="17" t="s">
+      <c r="D5" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="E5" s="17"/>
-      <c r="F5" s="17"/>
-      <c r="G5" s="17" t="str">
+      <c r="E5" s="18"/>
+      <c r="F5" s="18"/>
+      <c r="G5" s="18" t="str">
         <v>kiran</v>
       </c>
-      <c r="H5" s="17" t="str" cm="1">
+      <c r="H5" s="18" t="str" cm="1">
         <f t="array" ref="H5">_xlfn.IFS(C5&lt;5000,"Low",C5&lt;=7000,"Medium",C5&gt;7000,"High")</f>
         <v>Medium</v>
       </c>
-      <c r="I5" s="17"/>
-      <c r="J5" s="17"/>
-      <c r="K5" s="17"/>
+      <c r="I5" s="18"/>
+      <c r="J5" s="18"/>
+      <c r="K5" s="18"/>
     </row>
     <row r="6" ht="15.75" spans="1:11">
-      <c r="A6" s="17" t="s">
+      <c r="A6" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="B6" s="17" t="s">
+      <c r="B6" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="C6" s="17">
+      <c r="C6" s="18">
         <v>4000</v>
       </c>
-      <c r="D6" s="17" t="s">
+      <c r="D6" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="E6" s="17"/>
-      <c r="F6" s="17"/>
-      <c r="G6" s="17" t="str">
+      <c r="E6" s="18"/>
+      <c r="F6" s="18"/>
+      <c r="G6" s="18" t="str">
         <v>rohit</v>
       </c>
-      <c r="H6" s="17" t="str" cm="1">
+      <c r="H6" s="18" t="str" cm="1">
         <f t="array" ref="H6">_xlfn.IFS(C6&lt;5000,"Low",C6&lt;=7000,"Medium",C6&gt;7000,"High")</f>
         <v>Low</v>
       </c>
-      <c r="I6" s="17"/>
-      <c r="J6" s="17"/>
-      <c r="K6" s="17"/>
+      <c r="I6" s="18"/>
+      <c r="J6" s="18"/>
+      <c r="K6" s="18"/>
     </row>
     <row r="7" ht="15.75" spans="1:11">
-      <c r="A7" s="17" t="s">
+      <c r="A7" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="17" t="s">
+      <c r="B7" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="C7" s="17">
+      <c r="C7" s="18">
         <v>9000</v>
       </c>
-      <c r="D7" s="17" t="s">
+      <c r="D7" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="E7" s="17"/>
-      <c r="F7" s="17"/>
-      <c r="G7" s="17" t="str">
+      <c r="E7" s="18"/>
+      <c r="F7" s="18"/>
+      <c r="G7" s="18" t="str">
         <v>haran</v>
       </c>
-      <c r="H7" s="17" t="str" cm="1">
+      <c r="H7" s="18" t="str" cm="1">
         <f t="array" ref="H7">_xlfn.IFS(C7&lt;5000,"Low",C7&lt;=7000,"Medium",C7&gt;7000,"High")</f>
         <v>High</v>
       </c>
-      <c r="I7" s="17"/>
-      <c r="J7" s="17"/>
-      <c r="K7" s="17"/>
+      <c r="I7" s="18"/>
+      <c r="J7" s="18"/>
+      <c r="K7" s="18"/>
     </row>
     <row r="8" ht="15.75" spans="1:11">
-      <c r="A8" s="17" t="s">
+      <c r="A8" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="B8" s="17" t="s">
+      <c r="B8" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="C8" s="17">
+      <c r="C8" s="18">
         <v>3000</v>
       </c>
-      <c r="D8" s="17" t="s">
+      <c r="D8" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="E8" s="17"/>
-      <c r="F8" s="17"/>
-      <c r="G8" s="17" t="str">
+      <c r="E8" s="18"/>
+      <c r="F8" s="18"/>
+      <c r="G8" s="18" t="str">
         <v>meenu</v>
       </c>
-      <c r="H8" s="17" t="str" cm="1">
+      <c r="H8" s="18" t="str" cm="1">
         <f t="array" ref="H8">_xlfn.IFS(C8&lt;5000,"Low",C8&lt;=7000,"Medium",C8&gt;7000,"High")</f>
         <v>Low</v>
       </c>
-      <c r="I8" s="17"/>
-      <c r="J8" s="17"/>
-      <c r="K8" s="17"/>
+      <c r="I8" s="18"/>
+      <c r="J8" s="18"/>
+      <c r="K8" s="18"/>
     </row>
     <row r="9" ht="15.75" spans="1:11">
-      <c r="A9" s="17" t="s">
+      <c r="A9" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="B9" s="17" t="s">
+      <c r="B9" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="C9" s="17">
+      <c r="C9" s="18">
         <v>6000</v>
       </c>
-      <c r="D9" s="17" t="s">
+      <c r="D9" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="E9" s="17"/>
-      <c r="F9" s="17"/>
-      <c r="G9" s="17"/>
-      <c r="H9" s="17" t="str" cm="1">
+      <c r="E9" s="18"/>
+      <c r="F9" s="18"/>
+      <c r="G9" s="18"/>
+      <c r="H9" s="18" t="str" cm="1">
         <f t="array" ref="H9">_xlfn.IFS(C9&lt;5000,"Low",C9&lt;=7000,"Medium",C9&gt;7000,"High")</f>
         <v>Medium</v>
       </c>
-      <c r="I9" s="17"/>
-      <c r="J9" s="17"/>
-      <c r="K9" s="17"/>
+      <c r="I9" s="18"/>
+      <c r="J9" s="18"/>
+      <c r="K9" s="18"/>
     </row>
     <row r="16" spans="8:8">
-      <c r="H16" s="18"/>
+      <c r="H16" s="19"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2048,108 +2105,108 @@
   </cols>
   <sheetData>
     <row r="1" ht="15.75" spans="1:8">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="B1" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="C1" s="13" t="s">
+      <c r="C1" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="D1" s="13" t="s">
+      <c r="D1" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="E1" s="13" t="s">
+      <c r="E1" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="F1" s="13" t="s">
+      <c r="F1" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="G1" s="14" t="s">
+      <c r="G1" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="H1" s="14" t="s">
+      <c r="H1" s="15" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="2" ht="17.25" spans="1:8">
-      <c r="A2" s="15" t="s">
+      <c r="A2" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="B2" s="15" t="str">
+      <c r="B2" s="16" t="str">
         <f>LEFT(A2,5)</f>
         <v>Apple</v>
       </c>
-      <c r="C2" s="15" t="str">
+      <c r="C2" s="16" t="str">
         <f>RIGHT(A2,5)</f>
         <v>Juice</v>
       </c>
-      <c r="D2" s="15" t="str">
+      <c r="D2" s="16" t="str">
         <f>MID(A2,7,5)</f>
         <v>Juice</v>
       </c>
-      <c r="E2" s="15">
+      <c r="E2" s="16">
         <f>LEN(A2)</f>
         <v>11</v>
       </c>
-      <c r="F2" s="15" t="str">
+      <c r="F2" s="16" t="str">
         <f>SUBSTITUTE(A2,"Juice","ice")</f>
         <v>Apple ice</v>
       </c>
-      <c r="G2" s="15">
+      <c r="G2" s="16">
         <f>SEARCH("Apple",A2)</f>
         <v>1</v>
       </c>
-      <c r="H2" s="15" t="b">
+      <c r="H2" s="16" t="b">
         <f>ISNUMBER(SEARCH("Juice",A2))</f>
         <v>1</v>
       </c>
     </row>
     <row r="3" ht="17.25" spans="1:8">
-      <c r="A3" s="15" t="s">
+      <c r="A3" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="B3" s="15"/>
-      <c r="C3" s="15"/>
-      <c r="D3" s="15"/>
-      <c r="E3" s="15">
+      <c r="B3" s="16"/>
+      <c r="C3" s="16"/>
+      <c r="D3" s="16"/>
+      <c r="E3" s="16">
         <f>LEN(A3)</f>
         <v>11</v>
       </c>
-      <c r="F3" s="15"/>
-      <c r="G3" s="15"/>
-      <c r="H3" s="15"/>
+      <c r="F3" s="16"/>
+      <c r="G3" s="16"/>
+      <c r="H3" s="16"/>
     </row>
     <row r="4" ht="17.25" spans="1:8">
-      <c r="A4" s="15" t="s">
+      <c r="A4" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="B4" s="15"/>
-      <c r="C4" s="15"/>
-      <c r="D4" s="15"/>
-      <c r="E4" s="15">
+      <c r="B4" s="16"/>
+      <c r="C4" s="16"/>
+      <c r="D4" s="16"/>
+      <c r="E4" s="16">
         <f>LEN(A4)</f>
         <v>15</v>
       </c>
-      <c r="F4" s="15"/>
-      <c r="G4" s="15"/>
-      <c r="H4" s="15"/>
+      <c r="F4" s="16"/>
+      <c r="G4" s="16"/>
+      <c r="H4" s="16"/>
     </row>
     <row r="5" ht="17.25" spans="1:8">
-      <c r="A5" s="15" t="s">
+      <c r="A5" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="B5" s="15"/>
-      <c r="C5" s="15"/>
-      <c r="D5" s="15"/>
-      <c r="E5" s="15">
+      <c r="B5" s="16"/>
+      <c r="C5" s="16"/>
+      <c r="D5" s="16"/>
+      <c r="E5" s="16">
         <f>LEN(A5)</f>
         <v>12</v>
       </c>
-      <c r="F5" s="15"/>
-      <c r="G5" s="15"/>
-      <c r="H5" s="15"/>
+      <c r="F5" s="16"/>
+      <c r="G5" s="16"/>
+      <c r="H5" s="16"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2162,8 +2219,8 @@
   <sheetPr/>
   <dimension ref="A1:L16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N9" sqref="N9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M16" sqref="M16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>
@@ -2176,363 +2233,567 @@
   </cols>
   <sheetData>
     <row r="1" ht="15.75" spans="1:12">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="F1" s="2"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
-      <c r="K1" s="3"/>
-      <c r="L1" s="3"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="8"/>
+      <c r="H1" s="8"/>
+      <c r="I1" s="8"/>
+      <c r="J1" s="8"/>
+      <c r="K1" s="8"/>
+      <c r="L1" s="8"/>
     </row>
     <row r="2" ht="15.75" spans="1:12">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="D2" s="5">
+      <c r="D2" s="9">
         <v>1200</v>
       </c>
-      <c r="E2" s="5">
+      <c r="E2" s="9">
         <f>VLOOKUP(A4,A2:D7,4,FALSE)</f>
         <v>300</v>
       </c>
-      <c r="F2" s="5"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
-      <c r="J2" s="3"/>
-      <c r="K2" s="3"/>
-      <c r="L2" s="3"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="8"/>
+      <c r="H2" s="8"/>
+      <c r="I2" s="8"/>
+      <c r="J2" s="8"/>
+      <c r="K2" s="8"/>
+      <c r="L2" s="8"/>
     </row>
     <row r="3" ht="15.75" spans="1:12">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="D3" s="5">
+      <c r="D3" s="9">
         <v>25</v>
       </c>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3"/>
-      <c r="I3" s="3"/>
-      <c r="J3" s="3"/>
-      <c r="K3" s="3"/>
-      <c r="L3" s="3"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="8"/>
+      <c r="H3" s="8"/>
+      <c r="I3" s="8"/>
+      <c r="J3" s="8"/>
+      <c r="K3" s="8"/>
+      <c r="L3" s="8"/>
     </row>
     <row r="4" ht="15.75" spans="1:12">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="D4" s="5">
+      <c r="D4" s="9">
         <v>300</v>
       </c>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3"/>
-      <c r="I4" s="3"/>
-      <c r="J4" s="3"/>
-      <c r="K4" s="3"/>
-      <c r="L4" s="3"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="8"/>
+      <c r="H4" s="8"/>
+      <c r="I4" s="8"/>
+      <c r="J4" s="8"/>
+      <c r="K4" s="8"/>
+      <c r="L4" s="8"/>
     </row>
     <row r="5" ht="15.75" spans="1:12">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="D5" s="5">
+      <c r="D5" s="9">
         <v>150</v>
       </c>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="3"/>
-      <c r="H5" s="3"/>
-      <c r="I5" s="3"/>
-      <c r="J5" s="3"/>
-      <c r="K5" s="3"/>
-      <c r="L5" s="3"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="8"/>
+      <c r="H5" s="8"/>
+      <c r="I5" s="8"/>
+      <c r="J5" s="8"/>
+      <c r="K5" s="8"/>
+      <c r="L5" s="8"/>
     </row>
     <row r="6" ht="15.75" spans="1:12">
-      <c r="A6" s="4" t="s">
+      <c r="A6" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="D6" s="5">
+      <c r="D6" s="9">
         <v>200</v>
       </c>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="3"/>
-      <c r="H6" s="3"/>
-      <c r="I6" s="3"/>
-      <c r="J6" s="3"/>
-      <c r="K6" s="3"/>
-      <c r="L6" s="3"/>
+      <c r="E6" s="9"/>
+      <c r="F6" s="9"/>
+      <c r="G6" s="8"/>
+      <c r="H6" s="8"/>
+      <c r="I6" s="8"/>
+      <c r="J6" s="8"/>
+      <c r="K6" s="8"/>
+      <c r="L6" s="8"/>
     </row>
     <row r="7" ht="15.75" spans="1:12">
-      <c r="A7" s="4" t="s">
+      <c r="A7" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C7" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="D7" s="5">
+      <c r="D7" s="9">
         <v>80</v>
       </c>
-      <c r="E7" s="6"/>
-      <c r="F7" s="6"/>
-      <c r="G7" s="3"/>
-      <c r="H7" s="3"/>
-      <c r="I7" s="3"/>
-      <c r="J7" s="3"/>
-      <c r="K7" s="3"/>
-      <c r="L7" s="3"/>
+      <c r="E7" s="10"/>
+      <c r="F7" s="10"/>
+      <c r="G7" s="8"/>
+      <c r="H7" s="8"/>
+      <c r="I7" s="8"/>
+      <c r="J7" s="8"/>
+      <c r="K7" s="8"/>
+      <c r="L7" s="8"/>
     </row>
     <row r="8" ht="15.75" spans="1:12">
-      <c r="A8" s="3"/>
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
-      <c r="H8" s="3"/>
-      <c r="I8" s="3"/>
-      <c r="J8" s="3"/>
-      <c r="K8" s="3"/>
-      <c r="L8" s="3"/>
+      <c r="A8" s="8"/>
+      <c r="B8" s="8"/>
+      <c r="C8" s="8"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="8"/>
+      <c r="H8" s="8"/>
+      <c r="I8" s="8"/>
+      <c r="J8" s="8"/>
+      <c r="K8" s="8"/>
+      <c r="L8" s="8"/>
     </row>
     <row r="9" ht="15.75" spans="1:12">
-      <c r="A9" s="7"/>
-      <c r="B9" s="8" t="s">
+      <c r="A9" s="11"/>
+      <c r="B9" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="C9" s="8" t="s">
+      <c r="C9" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="D9" s="8" t="s">
+      <c r="D9" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="E9" s="8" t="s">
+      <c r="E9" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="F9" s="8" t="s">
+      <c r="F9" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="G9" s="1" t="s">
+      <c r="G9" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="H9" s="8" t="s">
+      <c r="H9" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="I9" s="8" t="s">
+      <c r="I9" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="J9" s="8" t="s">
+      <c r="J9" s="11" t="s">
         <v>67</v>
       </c>
-      <c r="K9" s="8" t="s">
+      <c r="K9" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="L9" s="3"/>
+      <c r="L9" s="8"/>
     </row>
     <row r="10" ht="15.75" spans="1:12">
-      <c r="A10" s="9" t="s">
+      <c r="A10" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="B10" s="9" t="s">
+      <c r="B10" s="12" t="s">
         <v>69</v>
       </c>
-      <c r="C10" s="9" t="s">
+      <c r="C10" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="D10" s="9" t="s">
+      <c r="D10" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="E10" s="9" t="s">
+      <c r="E10" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="F10" s="9" t="s">
+      <c r="F10" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="G10" s="9" t="s">
+      <c r="G10" s="12" t="s">
         <v>64</v>
       </c>
-      <c r="H10" s="10">
+      <c r="H10" s="13">
         <f>HLOOKUP("P003",B9:G12,4,FALSE)</f>
         <v>300</v>
       </c>
-      <c r="I10" s="12" t="str">
+      <c r="I10" s="13" t="str">
         <f>_xlfn.XLOOKUP(A3,A2:A7,B2:B7,"NOT FOUND")</f>
         <v>Mouse</v>
       </c>
-      <c r="J10" s="10">
+      <c r="J10" s="13">
         <f>COUNT(D2:D7)</f>
         <v>6</v>
       </c>
-      <c r="K10" s="10">
+      <c r="K10" s="13">
         <f>COUNTA(B2:B7)</f>
         <v>6</v>
       </c>
-      <c r="L10" s="3"/>
+      <c r="L10" s="8"/>
     </row>
     <row r="11" ht="15.75" spans="1:12">
-      <c r="A11" s="9" t="s">
+      <c r="A11" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="B11" s="9" t="s">
+      <c r="B11" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="C11" s="9" t="s">
+      <c r="C11" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="D11" s="9" t="s">
+      <c r="D11" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="E11" s="9" t="s">
+      <c r="E11" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="F11" s="9" t="s">
+      <c r="F11" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="G11" s="9" t="s">
+      <c r="G11" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="H11" s="10"/>
-      <c r="I11" s="10"/>
-      <c r="J11" s="10"/>
-      <c r="K11" s="10"/>
-      <c r="L11" s="3"/>
+      <c r="H11" s="13"/>
+      <c r="I11" s="13"/>
+      <c r="J11" s="13"/>
+      <c r="K11" s="13"/>
+      <c r="L11" s="8"/>
     </row>
     <row r="12" ht="15.75" spans="1:12">
-      <c r="A12" s="9" t="s">
+      <c r="A12" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="B12" s="11">
+      <c r="B12" s="12">
         <v>1200</v>
       </c>
-      <c r="C12" s="11">
+      <c r="C12" s="12">
         <v>25</v>
       </c>
-      <c r="D12" s="11">
+      <c r="D12" s="12">
         <v>300</v>
       </c>
-      <c r="E12" s="11">
+      <c r="E12" s="12">
         <v>150</v>
       </c>
-      <c r="F12" s="11">
+      <c r="F12" s="12">
         <v>200</v>
       </c>
-      <c r="G12" s="11">
+      <c r="G12" s="12">
         <v>80</v>
       </c>
-      <c r="H12" s="10"/>
-      <c r="I12" s="10"/>
-      <c r="J12" s="10"/>
-      <c r="K12" s="10"/>
-      <c r="L12" s="3"/>
+      <c r="H12" s="13"/>
+      <c r="I12" s="13"/>
+      <c r="J12" s="13"/>
+      <c r="K12" s="13"/>
+      <c r="L12" s="8"/>
     </row>
     <row r="13" ht="15.75" spans="1:12">
-      <c r="A13" s="10"/>
-      <c r="B13" s="10"/>
-      <c r="C13" s="10"/>
-      <c r="D13" s="10"/>
-      <c r="E13" s="10"/>
-      <c r="F13" s="10"/>
-      <c r="G13" s="10"/>
-      <c r="H13" s="10"/>
-      <c r="I13" s="10"/>
-      <c r="J13" s="10"/>
-      <c r="K13" s="10"/>
-      <c r="L13" s="3"/>
+      <c r="A13" s="13"/>
+      <c r="B13" s="13"/>
+      <c r="C13" s="13"/>
+      <c r="D13" s="13"/>
+      <c r="E13" s="13"/>
+      <c r="F13" s="13"/>
+      <c r="G13" s="13"/>
+      <c r="H13" s="13"/>
+      <c r="I13" s="13"/>
+      <c r="J13" s="13"/>
+      <c r="K13" s="13"/>
+      <c r="L13" s="8"/>
     </row>
     <row r="14" ht="15.75" spans="1:12">
-      <c r="A14" s="10"/>
-      <c r="B14" s="10"/>
-      <c r="C14" s="10"/>
-      <c r="D14" s="10"/>
-      <c r="E14" s="10"/>
-      <c r="F14" s="10"/>
-      <c r="G14" s="10"/>
-      <c r="H14" s="10"/>
-      <c r="I14" s="10"/>
-      <c r="J14" s="10"/>
-      <c r="K14" s="10"/>
-      <c r="L14" s="3"/>
+      <c r="A14" s="13"/>
+      <c r="B14" s="13"/>
+      <c r="C14" s="13"/>
+      <c r="D14" s="13"/>
+      <c r="E14" s="13"/>
+      <c r="F14" s="13"/>
+      <c r="G14" s="13"/>
+      <c r="H14" s="13"/>
+      <c r="I14" s="13"/>
+      <c r="J14" s="13"/>
+      <c r="K14" s="13"/>
+      <c r="L14" s="8"/>
     </row>
     <row r="15" ht="15.75" spans="1:12">
-      <c r="A15" s="3"/>
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
-      <c r="G15" s="3"/>
-      <c r="H15" s="3"/>
-      <c r="I15" s="3"/>
-      <c r="J15" s="3"/>
-      <c r="K15" s="3"/>
-      <c r="L15" s="3"/>
+      <c r="A15" s="8"/>
+      <c r="B15" s="8"/>
+      <c r="C15" s="8"/>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="8"/>
+      <c r="H15" s="8"/>
+      <c r="I15" s="8"/>
+      <c r="J15" s="8"/>
+      <c r="K15" s="8"/>
+      <c r="L15" s="8"/>
     </row>
     <row r="16" ht="15.75" spans="1:12">
-      <c r="A16" s="3"/>
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
-      <c r="F16" s="3"/>
-      <c r="G16" s="3"/>
-      <c r="H16" s="3"/>
-      <c r="I16" s="3"/>
-      <c r="J16" s="3"/>
-      <c r="K16" s="3"/>
-      <c r="L16" s="3"/>
+      <c r="A16" s="8"/>
+      <c r="B16" s="8"/>
+      <c r="C16" s="8"/>
+      <c r="D16" s="8"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="8"/>
+      <c r="H16" s="8"/>
+      <c r="I16" s="8"/>
+      <c r="J16" s="8"/>
+      <c r="K16" s="8"/>
+      <c r="L16" s="8"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:J6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="5"/>
+  <cols>
+    <col min="1" max="1" width="11.5714285714286" customWidth="1"/>
+    <col min="2" max="2" width="12.2857142857143" customWidth="1"/>
+    <col min="3" max="3" width="11.1428571428571" customWidth="1"/>
+    <col min="4" max="4" width="11.1428571428571"/>
+    <col min="5" max="5" width="16.7142857142857"/>
+    <col min="8" max="8" width="15.7142857142857" customWidth="1"/>
+    <col min="9" max="9" width="10.8571428571429" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="15.75" spans="1:10">
+      <c r="A1" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="J1" s="5"/>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="A2" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B2" s="3">
+        <v>45047</v>
+      </c>
+      <c r="C2" s="3">
+        <v>45230</v>
+      </c>
+      <c r="D2" s="3">
+        <f ca="1">TODAY()</f>
+        <v>46069</v>
+      </c>
+      <c r="E2" s="4">
+        <f ca="1">NOW()</f>
+        <v>46069.7366203704</v>
+      </c>
+      <c r="F2" s="2" cm="1">
+        <f t="array" ref="F2:F6">YEAR(B2:B6)</f>
+        <v>2023</v>
+      </c>
+      <c r="G2" s="2" cm="1">
+        <f t="array" ref="G2:G6">MONTH(C2:C6)</f>
+        <v>10</v>
+      </c>
+      <c r="H2" s="2">
+        <f>NETWORKDAYS(B2,C2)</f>
+        <v>132</v>
+      </c>
+      <c r="I2" s="3">
+        <f>EOMONTH(B2,2)</f>
+        <v>45138</v>
+      </c>
+      <c r="J2" s="2"/>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B3" s="3">
+        <v>45122</v>
+      </c>
+      <c r="C3" s="3">
+        <v>45560</v>
+      </c>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2">
+        <v>2023</v>
+      </c>
+      <c r="G3" s="2">
+        <v>9</v>
+      </c>
+      <c r="H3" s="2">
+        <f>NETWORKDAYS(B3,C3)</f>
+        <v>313</v>
+      </c>
+      <c r="I3" s="3">
+        <f>EOMONTH(B3,2)</f>
+        <v>45199</v>
+      </c>
+      <c r="J3" s="2"/>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B4" s="3">
+        <v>45148</v>
+      </c>
+      <c r="C4" s="3">
+        <v>45900</v>
+      </c>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2">
+        <v>2023</v>
+      </c>
+      <c r="G4" s="2">
+        <v>8</v>
+      </c>
+      <c r="H4" s="2">
+        <f>NETWORKDAYS(B4,C4)</f>
+        <v>537</v>
+      </c>
+      <c r="I4" s="3">
+        <f>EOMONTH(B4,2)</f>
+        <v>45230</v>
+      </c>
+      <c r="J4" s="2"/>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B5" s="3">
+        <v>45170</v>
+      </c>
+      <c r="C5" s="3">
+        <v>46130</v>
+      </c>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2">
+        <v>2023</v>
+      </c>
+      <c r="G5" s="2">
+        <v>4</v>
+      </c>
+      <c r="H5" s="2">
+        <f>NETWORKDAYS(B5,C5)</f>
+        <v>686</v>
+      </c>
+      <c r="I5" s="3">
+        <f>EOMONTH(B5,2)</f>
+        <v>45260</v>
+      </c>
+      <c r="J5" s="2"/>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="B6" s="3">
+        <v>45296</v>
+      </c>
+      <c r="C6" s="3">
+        <v>46538</v>
+      </c>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2">
+        <v>2024</v>
+      </c>
+      <c r="G6" s="2">
+        <v>5</v>
+      </c>
+      <c r="H6" s="2">
+        <f>NETWORKDAYS(B6,C6)</f>
+        <v>887</v>
+      </c>
+      <c r="I6" s="3">
+        <f>EOMONTH(B6,2)</f>
+        <v>45382</v>
+      </c>
+      <c r="J6" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
